--- a/data/trans_orig/IP07C27_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C27_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{926347B9-6C7A-4F35-B006-CA10D26FF1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9676A5D-ACA1-4970-B4B6-429F54482F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{193ED8EA-6329-47F4-B8F7-0041E2FC5EC0}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E75F6DF4-ACDE-435F-9645-DC05AD87A0AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,18 +65,234 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Moderadamente</t>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>3,62%</t>
   </si>
   <si>
@@ -98,9 +314,6 @@
     <t>4,25%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
     <t>3,07%</t>
   </si>
   <si>
@@ -125,15 +338,9 @@
     <t>6,86%</t>
   </si>
   <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
     <t>1,42%</t>
   </si>
   <si>
@@ -149,180 +356,165 @@
     <t>4,74%</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
     <t>4,34%</t>
   </si>
   <si>
@@ -392,196 +584,58 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -654,60 +708,6 @@
   </si>
   <si>
     <t>1,28%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05652999-2DC4-4150-A801-E8A0A63CC7A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B20AF4A-C0C6-4BEB-B96D-9A13C676486D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1217,10 +1217,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>643</v>
+        <v>2324</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1232,10 +1232,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1958</v>
+        <v>950</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1244,226 +1244,226 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3275</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>4</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2600</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3154</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>643</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>643</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1209</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4363</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>1567</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>809</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>2376</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>84631</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>44191</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>128823</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>12703</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>8894</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>21597</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,306 +1472,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>159759</v>
+        <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>849</v>
+        <v>35501</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>25038</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>849</v>
+        <v>60539</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>5069</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>700</v>
+        <v>3213</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>700</v>
+        <v>8282</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>546</v>
+        <v>849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>2948</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>3494</v>
+        <v>849</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>35501</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>25038</v>
+        <v>700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>60539</v>
+        <v>700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>5069</v>
+        <v>546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>3213</v>
+        <v>2948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>8282</v>
+        <v>3494</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,13 +1786,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1801,13 +1801,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1816,270 +1816,270 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>2445</v>
+        <v>84631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>2659</v>
+        <v>44191</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="N16" s="7">
-        <v>5104</v>
+        <v>128823</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>3916</v>
+        <v>12703</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>1755</v>
+        <v>8894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N17" s="7">
-        <v>5671</v>
+        <v>21597</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>2032</v>
+        <v>643</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1936</v>
+        <v>1958</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>3969</v>
+        <v>2600</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>33168</v>
+        <v>3154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>40329</v>
+        <v>1209</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4363</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="7">
-        <v>73497</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>14780</v>
+        <v>1567</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>9805</v>
+        <v>809</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>24586</v>
+        <v>2376</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,159 +2088,159 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>56342</v>
+        <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I21" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="N21" s="7">
-        <v>112826</v>
+        <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>52060</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>38184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>90244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>11369</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>12914</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>24283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2249,145 +2249,145 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>1138</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1138</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>2324</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>950</v>
+        <v>2304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>3275</v>
+        <v>2304</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>643</v>
+        <v>969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>643</v>
+        <v>1390</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,150 +2396,150 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7">
-        <v>2324</v>
+        <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I27" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>3918</v>
+        <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>33168</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="I28" s="7">
-        <v>1138</v>
+        <v>40329</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="N28" s="7">
-        <v>1138</v>
+        <v>73497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>14780</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="7">
         <v>12</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="7">
-        <v>3</v>
-      </c>
       <c r="I29" s="7">
-        <v>2304</v>
+        <v>9805</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>29</v>
+      </c>
+      <c r="N29" s="7">
+        <v>24586</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2304</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>158</v>
@@ -2548,154 +2548,154 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>422</v>
+        <v>2445</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>159</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" s="7">
-        <v>969</v>
+        <v>2659</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M30" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N30" s="7">
-        <v>1390</v>
+        <v>5104</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>52060</v>
+        <v>3916</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H31" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>38184</v>
+        <v>1755</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M31" s="7">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="N31" s="7">
-        <v>90244</v>
+        <v>5671</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>11369</v>
+        <v>2032</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>12914</v>
+        <v>1936</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M32" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>24283</v>
+        <v>3969</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,49 +2704,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
-        <v>63851</v>
+        <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I33" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N33" s="7">
-        <v>119360</v>
+        <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,10 +2757,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="D34" s="7">
-        <v>3936</v>
+        <v>207686</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>182</v>
@@ -2772,10 +2772,10 @@
         <v>184</v>
       </c>
       <c r="H34" s="7">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="I34" s="7">
-        <v>5755</v>
+        <v>148692</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>185</v>
@@ -2787,10 +2787,10 @@
         <v>187</v>
       </c>
       <c r="M34" s="7">
-        <v>13</v>
+        <v>448</v>
       </c>
       <c r="N34" s="7">
-        <v>9691</v>
+        <v>356377</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>188</v>
@@ -2805,13 +2805,13 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D35" s="7">
-        <v>7070</v>
+        <v>43921</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>191</v>
@@ -2823,187 +2823,187 @@
         <v>193</v>
       </c>
       <c r="H35" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I35" s="7">
-        <v>5968</v>
+        <v>35470</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>194</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M35" s="7">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="N35" s="7">
-        <v>13038</v>
+        <v>79391</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="7">
-        <v>4567</v>
+        <v>3936</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H36" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I36" s="7">
-        <v>6661</v>
+        <v>5755</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
       </c>
       <c r="N36" s="7">
-        <v>11229</v>
+        <v>9691</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C37" s="7">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>207686</v>
+        <v>7070</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H37" s="7">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="I37" s="7">
-        <v>148692</v>
+        <v>5968</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M37" s="7">
-        <v>448</v>
+        <v>16</v>
       </c>
       <c r="N37" s="7">
-        <v>356377</v>
+        <v>13038</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D38" s="7">
-        <v>43921</v>
+        <v>4567</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H38" s="7">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I38" s="7">
-        <v>35470</v>
+        <v>6661</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>219</v>
+        <v>58</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M38" s="7">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="N38" s="7">
-        <v>79391</v>
+        <v>11229</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3018,13 @@
         <v>267180</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3033,13 +3033,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M39" s="7">
         <v>577</v>
@@ -3048,13 +3048,13 @@
         <v>469726</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C27_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C27_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9676A5D-ACA1-4970-B4B6-429F54482F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26B9D64-2155-46FB-A8E5-5EA247AA11E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E75F6DF4-ACDE-435F-9645-DC05AD87A0AE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A89027FB-38A3-4927-AA70-8E301410147A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="223">
   <si>
     <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -68,12 +68,48 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>63,75%</t>
   </si>
   <si>
@@ -83,631 +119,592 @@
     <t>59,64%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>83,58%</t>
   </si>
   <si>
     <t>38,37%</t>
   </si>
   <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>78,49%</t>
   </si>
   <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>66,71%</t>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -718,7 +715,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -814,39 +811,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -898,7 +895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1009,13 +1006,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1024,6 +1014,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1088,19 +1085,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B20AF4A-C0C6-4BEB-B96D-9A13C676486D}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D31D24C-CB71-432A-BF93-3E584B9C6F04}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1217,10 +1234,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2324</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1232,40 +1249,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3275</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1274,49 +1291,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>643</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>643</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1325,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1340,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1355,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1376,94 +1393,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>643</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2324</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>950</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="7">
+        <v>6</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3275</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1478,13 +1495,13 @@
         <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1493,13 +1510,13 @@
         <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -1508,13 +1525,13 @@
         <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,106 +1542,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>35501</v>
+        <v>546</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2948</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="7">
-        <v>40</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25038</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3494</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="7">
-        <v>81</v>
-      </c>
-      <c r="N10" s="7">
-        <v>60539</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>5069</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>700</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>700</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3213</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8282</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1633,13 +1650,13 @@
         <v>849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1648,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1663,106 +1680,106 @@
         <v>849</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>5069</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3213</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8282</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>700</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>700</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>546</v>
+        <v>35501</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>40</v>
+      </c>
+      <c r="I14" s="7">
+        <v>25038</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2948</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="N14" s="7">
-        <v>3494</v>
+        <v>60539</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>62</v>
@@ -1786,13 +1803,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1801,13 +1818,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1816,13 +1833,13 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,106 +1850,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>84631</v>
+        <v>1567</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>809</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="7">
-        <v>60</v>
-      </c>
-      <c r="I16" s="7">
-        <v>44191</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2376</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="7">
-        <v>157</v>
-      </c>
-      <c r="N16" s="7">
-        <v>128823</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>12703</v>
+        <v>3154</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1209</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4363</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="7">
-        <v>13</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8894</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="7">
-        <v>29</v>
-      </c>
-      <c r="N17" s="7">
-        <v>21597</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -1941,13 +1958,13 @@
         <v>643</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1956,13 +1973,13 @@
         <v>1958</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1971,115 +1988,115 @@
         <v>2600</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>3154</v>
+        <v>12703</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8894</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>29</v>
+      </c>
+      <c r="N19" s="7">
+        <v>21597</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1209</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4363</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D20" s="7">
-        <v>1567</v>
+        <v>84631</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="7">
+        <v>60</v>
+      </c>
+      <c r="I20" s="7">
+        <v>44191</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>809</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>157</v>
+      </c>
+      <c r="N20" s="7">
+        <v>128823</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2376</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2111,13 @@
         <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -2109,13 +2126,13 @@
         <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M21" s="7">
         <v>198</v>
@@ -2124,123 +2141,123 @@
         <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>52060</v>
+        <v>422</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>969</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="7">
-        <v>52</v>
-      </c>
-      <c r="I22" s="7">
-        <v>38184</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1390</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M22" s="7">
-        <v>106</v>
-      </c>
-      <c r="N22" s="7">
-        <v>90244</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>11369</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2304</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M23" s="7">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2304</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="H23" s="7">
-        <v>8</v>
-      </c>
-      <c r="I23" s="7">
-        <v>12914</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" s="7">
-        <v>18</v>
-      </c>
-      <c r="N23" s="7">
-        <v>24283</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2249,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2264,13 +2281,13 @@
         <v>1138</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2279,115 +2296,115 @@
         <v>1138</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>11369</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="7">
+        <v>8</v>
+      </c>
+      <c r="I25" s="7">
+        <v>12914</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2304</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="7">
+        <v>18</v>
+      </c>
+      <c r="N25" s="7">
+        <v>24283</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2304</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7">
-        <v>422</v>
+        <v>52060</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="7">
+        <v>52</v>
+      </c>
+      <c r="I26" s="7">
+        <v>38184</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>969</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>106</v>
+      </c>
+      <c r="N26" s="7">
+        <v>90244</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M26" s="7">
-        <v>2</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1390</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2419,13 @@
         <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -2417,13 +2434,13 @@
         <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M27" s="7">
         <v>131</v>
@@ -2432,123 +2449,123 @@
         <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>33168</v>
+        <v>2032</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1936</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="7">
-        <v>55</v>
-      </c>
-      <c r="I28" s="7">
-        <v>40329</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>5</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3969</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="M28" s="7">
-        <v>98</v>
-      </c>
-      <c r="N28" s="7">
-        <v>73497</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>14780</v>
+        <v>3916</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1755</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>7</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5671</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="7">
-        <v>12</v>
-      </c>
-      <c r="I29" s="7">
-        <v>9805</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M29" s="7">
-        <v>29</v>
-      </c>
-      <c r="N29" s="7">
-        <v>24586</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
         <v>3</v>
@@ -2557,13 +2574,13 @@
         <v>2445</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2572,13 +2589,13 @@
         <v>2659</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -2587,115 +2604,115 @@
         <v>5104</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D31" s="7">
-        <v>3916</v>
+        <v>14780</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="7">
+        <v>12</v>
+      </c>
+      <c r="I31" s="7">
+        <v>9805</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>29</v>
+      </c>
+      <c r="N31" s="7">
+        <v>24586</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1755</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M31" s="7">
-        <v>7</v>
-      </c>
-      <c r="N31" s="7">
-        <v>5671</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D32" s="7">
-        <v>2032</v>
+        <v>33168</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="7">
+        <v>55</v>
+      </c>
+      <c r="I32" s="7">
+        <v>40329</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1936</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>98</v>
+      </c>
+      <c r="N32" s="7">
+        <v>73497</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="7">
-        <v>5</v>
-      </c>
-      <c r="N32" s="7">
-        <v>3969</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2727,13 @@
         <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H33" s="7">
         <v>75</v>
@@ -2725,13 +2742,13 @@
         <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M33" s="7">
         <v>145</v>
@@ -2740,13 +2757,13 @@
         <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,106 +2774,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="D34" s="7">
-        <v>207686</v>
+        <v>4567</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>7</v>
+      </c>
+      <c r="I34" s="7">
+        <v>6661</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H34" s="7">
-        <v>209</v>
-      </c>
-      <c r="I34" s="7">
-        <v>148692</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>13</v>
+      </c>
+      <c r="N34" s="7">
+        <v>11229</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="M34" s="7">
-        <v>448</v>
-      </c>
-      <c r="N34" s="7">
-        <v>356377</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D35" s="7">
-        <v>43921</v>
+        <v>7070</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H35" s="7">
+        <v>8</v>
+      </c>
+      <c r="I35" s="7">
+        <v>5968</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H35" s="7">
-        <v>38</v>
-      </c>
-      <c r="I35" s="7">
-        <v>35470</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>16</v>
+      </c>
+      <c r="N35" s="7">
+        <v>13038</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="M35" s="7">
-        <v>87</v>
-      </c>
-      <c r="N35" s="7">
-        <v>79391</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
         <v>5</v>
@@ -2865,13 +2882,13 @@
         <v>3936</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -2880,13 +2897,13 @@
         <v>5755</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -2895,115 +2912,115 @@
         <v>9691</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D37" s="7">
-        <v>7070</v>
+        <v>43921</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" s="7">
+        <v>38</v>
+      </c>
+      <c r="I37" s="7">
+        <v>35470</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>87</v>
+      </c>
+      <c r="N37" s="7">
+        <v>79391</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H37" s="7">
-        <v>8</v>
-      </c>
-      <c r="I37" s="7">
-        <v>5968</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M37" s="7">
-        <v>16</v>
-      </c>
-      <c r="N37" s="7">
-        <v>13038</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C38" s="7">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="D38" s="7">
-        <v>4567</v>
+        <v>207686</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" s="7">
+        <v>209</v>
+      </c>
+      <c r="I38" s="7">
+        <v>148692</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>448</v>
+      </c>
+      <c r="N38" s="7">
+        <v>356377</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H38" s="7">
-        <v>7</v>
-      </c>
-      <c r="I38" s="7">
-        <v>6661</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="M38" s="7">
-        <v>13</v>
-      </c>
-      <c r="N38" s="7">
-        <v>11229</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3035,13 @@
         <v>267180</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3033,13 +3050,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M39" s="7">
         <v>577</v>
@@ -3048,13 +3065,18 @@
         <v>469726</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C27_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C27_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26B9D64-2155-46FB-A8E5-5EA247AA11E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD730C1-D482-4AEA-9D15-73297EDC57BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A89027FB-38A3-4927-AA70-8E301410147A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58DBACBF-C17C-43F6-AAAF-8FF41E7BCF29}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="224">
   <si>
     <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -104,7 +104,7 @@
     <t>16,42%</t>
   </si>
   <si>
-    <t>61,63%</t>
+    <t>63,24%</t>
   </si>
   <si>
     <t>Nada</t>
@@ -122,31 +122,31 @@
     <t>83,58%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,77%</t>
+    <t>6,6%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>32,36%</t>
+    <t>37,59%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -155,19 +155,19 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>11,04%</t>
+    <t>9,97%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>5,36%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>9,54%</t>
+    <t>10,0%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -176,532 +176,535 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>5,59%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>10,07%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>78,49%</t>
   </si>
   <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>5,34%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>6,5%</t>
+    <t>7,31%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
+    <t>6,65%</t>
+  </si>
+  <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,47%</t>
+    <t>2,99%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>10,0%</t>
+    <t>10,68%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>12,06%</t>
+    <t>12,74%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>65,14%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>3,66%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1116,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D31D24C-CB71-432A-BF93-3E584B9C6F04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF30379-ED8A-4AA2-AD56-15318EE35982}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1928,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1937,13 +1940,13 @@
         <v>4363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,13 +1961,13 @@
         <v>643</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1973,13 +1976,13 @@
         <v>1958</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1988,13 +1991,13 @@
         <v>2600</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,13 +2012,13 @@
         <v>12703</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2024,13 +2027,13 @@
         <v>8894</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -2039,13 +2042,13 @@
         <v>21597</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,13 +2063,13 @@
         <v>84631</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -2075,13 +2078,13 @@
         <v>44191</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -2090,13 +2093,13 @@
         <v>128823</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,7 +2155,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2164,13 +2167,13 @@
         <v>422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2179,13 +2182,13 @@
         <v>969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2194,13 +2197,13 @@
         <v>1390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2230,13 +2233,13 @@
         <v>2304</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2245,13 +2248,13 @@
         <v>2304</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2281,13 +2284,13 @@
         <v>1138</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2302,7 +2305,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,13 +2320,13 @@
         <v>11369</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2332,13 +2335,13 @@
         <v>12914</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2347,13 +2350,13 @@
         <v>24283</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2371,13 @@
         <v>52060</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -2383,13 +2386,13 @@
         <v>38184</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -2398,13 +2401,13 @@
         <v>90244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,7 +2463,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2472,13 +2475,13 @@
         <v>2032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2487,13 +2490,13 @@
         <v>1936</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -2502,13 +2505,13 @@
         <v>3969</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,13 +2526,13 @@
         <v>3916</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2538,13 +2541,13 @@
         <v>1755</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2553,13 +2556,13 @@
         <v>5671</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2577,13 @@
         <v>2445</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2589,13 +2592,13 @@
         <v>2659</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -2604,13 +2607,13 @@
         <v>5104</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2628,13 @@
         <v>14780</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -2640,13 +2643,13 @@
         <v>9805</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -2655,13 +2658,13 @@
         <v>24586</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2679,13 @@
         <v>33168</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>55</v>
@@ -2691,13 +2694,13 @@
         <v>40329</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>98</v>
@@ -2706,13 +2709,13 @@
         <v>73497</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2783,13 @@
         <v>4567</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -2795,13 +2798,13 @@
         <v>6661</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
@@ -2810,13 +2813,13 @@
         <v>11229</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2834,13 @@
         <v>7070</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -2846,13 +2849,13 @@
         <v>5968</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -2861,13 +2864,13 @@
         <v>13038</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2885,13 @@
         <v>3936</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -2897,13 +2900,13 @@
         <v>5755</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -2915,10 +2918,10 @@
         <v>202</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2936,13 @@
         <v>43921</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H37" s="7">
         <v>38</v>
@@ -2948,13 +2951,13 @@
         <v>35470</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M37" s="7">
         <v>87</v>
@@ -2963,13 +2966,13 @@
         <v>79391</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2987,13 @@
         <v>207686</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H38" s="7">
         <v>209</v>
@@ -2999,13 +3002,13 @@
         <v>148692</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M38" s="7">
         <v>448</v>
@@ -3014,13 +3017,13 @@
         <v>356377</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +3079,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C27_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C27_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD730C1-D482-4AEA-9D15-73297EDC57BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41BF34F0-DE47-48D6-AAD7-F9E46AD6123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58DBACBF-C17C-43F6-AAAF-8FF41E7BCF29}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FB96B83B-78FF-4E19-B1DD-B4546B1483CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="224">
-  <si>
-    <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="194">
+  <si>
+    <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,646 +65,556 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>10,33%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1119,8 +1029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF30379-ED8A-4AA2-AD56-15318EE35982}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A29AF1-66F6-452B-8442-C1CC9EAF9232}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1237,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>19552</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1252,106 +1162,106 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>31117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>50668</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>10529</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>15772</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>26301</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1360,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1396,94 +1306,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>643</v>
+        <v>535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>643</v>
+        <v>535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2324</v>
+        <v>438</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>3275</v>
+        <v>438</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,306 +1402,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>1593</v>
+        <v>47424</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="N9" s="7">
-        <v>3918</v>
+        <v>78597</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>546</v>
+        <v>32670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="I10" s="7">
-        <v>2948</v>
+        <v>56576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="N10" s="7">
-        <v>3494</v>
+        <v>89245</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>17654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>700</v>
+        <v>37879</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>700</v>
+        <v>55533</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>849</v>
+        <v>3309</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="7">
         <v>12</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
       <c r="N12" s="7">
-        <v>849</v>
+        <v>11009</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>5069</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>3213</v>
+        <v>622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>8282</v>
+        <v>622</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>35501</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>25038</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>60539</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,306 +1710,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N15" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>1567</v>
+        <v>33227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>809</v>
+        <v>49877</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="N16" s="7">
-        <v>2376</v>
+        <v>83104</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>3154</v>
+        <v>37800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>1209</v>
+        <v>11631</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N17" s="7">
-        <v>4363</v>
+        <v>49432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1958</v>
+        <v>764</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>2600</v>
+        <v>1477</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>12703</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>8894</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M19" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>21597</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>84631</v>
+        <v>444</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>44191</v>
+        <v>2705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>128823</v>
+        <v>3149</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,306 +2018,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>102698</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>57060</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>159759</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>422</v>
+        <v>34523</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I22" s="7">
-        <v>969</v>
+        <v>40398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N22" s="7">
-        <v>1390</v>
+        <v>74921</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>16959</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I23" s="7">
-        <v>2304</v>
+        <v>11418</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="N23" s="7">
-        <v>2304</v>
+        <v>28376</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>1138</v>
+        <v>2703</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>1138</v>
+        <v>4705</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>11369</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>12914</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>24283</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>52060</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>38184</v>
+        <v>1852</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>90244</v>
+        <v>1852</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,306 +2326,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I27" s="7">
-        <v>55509</v>
+        <v>56371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N27" s="7">
-        <v>119360</v>
+        <v>109854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="D28" s="7">
-        <v>2032</v>
+        <v>119971</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="I28" s="7">
-        <v>1936</v>
+        <v>177968</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
-        <v>5</v>
+        <v>380</v>
       </c>
       <c r="N28" s="7">
-        <v>3969</v>
+        <v>297939</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D29" s="7">
-        <v>3916</v>
+        <v>82942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="I29" s="7">
-        <v>1755</v>
+        <v>76700</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="N29" s="7">
-        <v>5671</v>
+        <v>159642</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>2445</v>
+        <v>6678</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I30" s="7">
-        <v>2659</v>
+        <v>11168</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N30" s="7">
-        <v>5104</v>
+        <v>17846</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>14780</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H31" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>9805</v>
+        <v>1158</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M31" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>24586</v>
+        <v>1158</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>33168</v>
+        <v>881</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H32" s="7">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I32" s="7">
-        <v>40329</v>
+        <v>4557</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M32" s="7">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="N32" s="7">
-        <v>73497</v>
+        <v>5438</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,370 +2634,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>56342</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="I33" s="7">
-        <v>56484</v>
+        <v>271551</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>145</v>
+        <v>576</v>
       </c>
       <c r="N33" s="7">
-        <v>112826</v>
+        <v>482023</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>6</v>
-      </c>
-      <c r="D34" s="7">
-        <v>4567</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H34" s="7">
-        <v>7</v>
-      </c>
-      <c r="I34" s="7">
-        <v>6661</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34" s="7">
-        <v>13</v>
-      </c>
-      <c r="N34" s="7">
-        <v>11229</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>8</v>
-      </c>
-      <c r="D35" s="7">
-        <v>7070</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="7">
-        <v>8</v>
-      </c>
-      <c r="I35" s="7">
-        <v>5968</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K35" s="7" t="s">
+      <c r="A34" t="s">
         <v>193</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M35" s="7">
-        <v>16</v>
-      </c>
-      <c r="N35" s="7">
-        <v>13038</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="7">
-        <v>5</v>
-      </c>
-      <c r="D36" s="7">
-        <v>3936</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H36" s="7">
-        <v>8</v>
-      </c>
-      <c r="I36" s="7">
-        <v>5755</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M36" s="7">
-        <v>13</v>
-      </c>
-      <c r="N36" s="7">
-        <v>9691</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="7">
-        <v>49</v>
-      </c>
-      <c r="D37" s="7">
-        <v>43921</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H37" s="7">
-        <v>38</v>
-      </c>
-      <c r="I37" s="7">
-        <v>35470</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M37" s="7">
-        <v>87</v>
-      </c>
-      <c r="N37" s="7">
-        <v>79391</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="7">
-        <v>239</v>
-      </c>
-      <c r="D38" s="7">
-        <v>207686</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H38" s="7">
-        <v>209</v>
-      </c>
-      <c r="I38" s="7">
-        <v>148692</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M38" s="7">
-        <v>448</v>
-      </c>
-      <c r="N38" s="7">
-        <v>356377</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>307</v>
-      </c>
-      <c r="D39" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="7">
-        <v>270</v>
-      </c>
-      <c r="I39" s="7">
-        <v>202546</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" s="7">
-        <v>577</v>
-      </c>
-      <c r="N39" s="7">
-        <v>469726</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>223</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
